--- a/DATA/imc_vs_pib.xlsx
+++ b/DATA/imc_vs_pib.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Country</t>
   </si>
@@ -43,6 +43,9 @@
     <t>India</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -73,10 +76,19 @@
     <t>Philippines</t>
   </si>
   <si>
+    <t>Egypt, Arab Rep.</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
   </si>
   <si>
     <t>Turkey</t>
@@ -902,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,22 +994,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>263991000</v>
+        <v>325719000</v>
       </c>
       <c r="C4">
-        <v>1015539.0175365</v>
+        <v>19390604</v>
       </c>
       <c r="D4">
-        <v>22.4</v>
+        <v>28.8</v>
       </c>
       <c r="E4">
-        <v>23.4</v>
+        <v>28.8</v>
       </c>
       <c r="F4">
-        <v>22.9</v>
+        <v>28.8</v>
       </c>
       <c r="G4">
-        <v>0.00384686984607998</v>
+        <v>0.0595316944974042</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1005,22 +1017,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>209288000</v>
+        <v>263991000</v>
       </c>
       <c r="C5">
-        <v>2055505.50222473</v>
+        <v>1015539.0175365</v>
       </c>
       <c r="D5">
-        <v>25.9</v>
+        <v>22.4</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>23.4</v>
       </c>
       <c r="F5">
-        <v>25.95</v>
+        <v>22.9</v>
       </c>
       <c r="G5">
-        <v>0.009821420732314944</v>
+        <v>0.00384686984607998</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1028,22 +1040,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>197016000</v>
+        <v>209288000</v>
       </c>
       <c r="C6">
-        <v>304951.818494066</v>
+        <v>2055505.50222473</v>
       </c>
       <c r="D6">
-        <v>23.3</v>
+        <v>25.9</v>
       </c>
       <c r="E6">
-        <v>24.4</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>23.85</v>
+        <v>25.95</v>
       </c>
       <c r="G6">
-        <v>0.001547853060127431</v>
+        <v>0.009821420732314944</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1051,22 +1063,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>190886000</v>
+        <v>197016000</v>
       </c>
       <c r="C7">
-        <v>375770.713742763</v>
+        <v>304951.818494066</v>
       </c>
       <c r="D7">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="F7">
-        <v>23.4</v>
+        <v>23.85</v>
       </c>
       <c r="G7">
-        <v>0.001968560888398117</v>
+        <v>0.001547853060127431</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1074,22 +1086,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>164670000</v>
+        <v>190886000</v>
       </c>
       <c r="C8">
-        <v>249723.88776542</v>
+        <v>375770.713742763</v>
       </c>
       <c r="D8">
-        <v>20.7</v>
+        <v>22.8</v>
       </c>
       <c r="E8">
-        <v>21.2</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>20.95</v>
+        <v>23.4</v>
       </c>
       <c r="G8">
-        <v>0.00151651112992907</v>
+        <v>0.001968560888398117</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1097,22 +1109,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>144495000</v>
+        <v>164670000</v>
       </c>
       <c r="C9">
-        <v>1577524.14596317</v>
+        <v>249723.88776542</v>
       </c>
       <c r="D9">
-        <v>26.1</v>
+        <v>20.7</v>
       </c>
       <c r="E9">
-        <v>26.8</v>
+        <v>21.2</v>
       </c>
       <c r="F9">
-        <v>26.45</v>
+        <v>20.95</v>
       </c>
       <c r="G9">
-        <v>0.01091749988555431</v>
+        <v>0.00151651112992907</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1120,22 +1132,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>129163000</v>
+        <v>144495000</v>
       </c>
       <c r="C10">
-        <v>1149918.79476573</v>
+        <v>1577524.14596317</v>
       </c>
       <c r="D10">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="E10">
-        <v>28.7</v>
+        <v>26.8</v>
       </c>
       <c r="F10">
-        <v>28.1</v>
+        <v>26.45</v>
       </c>
       <c r="G10">
-        <v>0.008902849846827109</v>
+        <v>0.01091749988555431</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1143,22 +1155,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>126786000</v>
+        <v>129163000</v>
       </c>
       <c r="C11">
-        <v>4872136.94550759</v>
+        <v>1149918.79476573</v>
       </c>
       <c r="D11">
-        <v>23.6</v>
+        <v>27.5</v>
       </c>
       <c r="E11">
-        <v>21.7</v>
+        <v>28.7</v>
       </c>
       <c r="F11">
-        <v>22.65</v>
+        <v>28.1</v>
       </c>
       <c r="G11">
-        <v>0.03842803578871161</v>
+        <v>0.008902849846827109</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1166,22 +1178,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>104957000</v>
+        <v>126786000</v>
       </c>
       <c r="C12">
-        <v>80561.4961339172</v>
+        <v>4872136.94550759</v>
       </c>
       <c r="D12">
-        <v>20.2</v>
+        <v>23.6</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="F12">
-        <v>20.6</v>
+        <v>22.65</v>
       </c>
       <c r="G12">
-        <v>0.0007675666809637967</v>
+        <v>0.03842803578871161</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1189,22 +1201,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>104918000</v>
+        <v>104957000</v>
       </c>
       <c r="C13">
-        <v>313595.208737269</v>
+        <v>80561.4961339172</v>
       </c>
       <c r="D13">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
       <c r="E13">
-        <v>23.4</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>23.15</v>
+        <v>20.6</v>
       </c>
       <c r="G13">
-        <v>0.002988955267325616</v>
+        <v>0.0007675666809637967</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1212,22 +1224,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>95541000</v>
+        <v>104918000</v>
       </c>
       <c r="C14">
-        <v>223863.996354655</v>
+        <v>313595.208737269</v>
       </c>
       <c r="D14">
-        <v>21.5</v>
+        <v>22.9</v>
       </c>
       <c r="E14">
-        <v>21.6</v>
+        <v>23.4</v>
       </c>
       <c r="F14">
-        <v>21.55</v>
+        <v>23.15</v>
       </c>
       <c r="G14">
-        <v>0.002343119669614668</v>
+        <v>0.002988955267325616</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1235,22 +1247,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>82695000</v>
+        <v>97553000</v>
       </c>
       <c r="C15">
-        <v>3677439.1297766</v>
+        <v>235369.129337711</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>27.6</v>
       </c>
       <c r="E15">
-        <v>25.6</v>
+        <v>30.7</v>
       </c>
       <c r="F15">
-        <v>26.3</v>
+        <v>29.15</v>
       </c>
       <c r="G15">
-        <v>0.04446990906072435</v>
+        <v>0.002412730816455783</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1258,22 +1270,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>80745000</v>
+        <v>95541000</v>
       </c>
       <c r="C16">
-        <v>851102.411118116</v>
+        <v>223863.996354655</v>
       </c>
       <c r="D16">
-        <v>27.1</v>
+        <v>21.5</v>
       </c>
       <c r="E16">
-        <v>28.5</v>
+        <v>21.6</v>
       </c>
       <c r="F16">
-        <v>27.8</v>
+        <v>21.55</v>
       </c>
       <c r="G16">
-        <v>0.01054062060955002</v>
+        <v>0.002343119669614668</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1281,22 +1293,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>69038000</v>
+        <v>82695000</v>
       </c>
       <c r="C17">
-        <v>455220.920571129</v>
+        <v>3677439.1297766</v>
       </c>
       <c r="D17">
-        <v>23.6</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="F17">
-        <v>24.1</v>
+        <v>26.3</v>
       </c>
       <c r="G17">
-        <v>0.0065937732925509</v>
+        <v>0.04446990906072435</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1304,22 +1316,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>67119000</v>
+        <v>81340000</v>
       </c>
       <c r="C18">
-        <v>2582501.30721642</v>
+        <v>37241.30094865899</v>
       </c>
       <c r="D18">
-        <v>26.1</v>
+        <v>22.5</v>
       </c>
       <c r="E18">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="F18">
-        <v>25.35</v>
+        <v>23.3</v>
       </c>
       <c r="G18">
-        <v>0.03847645684852903</v>
+        <v>0.000457847319260622</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1327,22 +1339,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>66022000</v>
+        <v>81163000</v>
       </c>
       <c r="C19">
-        <v>2622433.95960416</v>
+        <v>439513.511620591</v>
       </c>
       <c r="D19">
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="E19">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F19">
-        <v>27.3</v>
+        <v>26.25</v>
       </c>
       <c r="G19">
-        <v>0.03972060767023355</v>
+        <v>0.00541519549080974</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1350,22 +1362,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>60551000</v>
+        <v>80745000</v>
       </c>
       <c r="C20">
-        <v>1934797.93741133</v>
+        <v>851102.411118116</v>
       </c>
       <c r="D20">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="E20">
-        <v>25.2</v>
+        <v>28.5</v>
       </c>
       <c r="F20">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="G20">
-        <v>0.03195319544534905</v>
+        <v>0.01054062060955002</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1373,22 +1385,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>57310000</v>
+        <v>69038000</v>
       </c>
       <c r="C21">
-        <v>52090.3203254736</v>
+        <v>455220.920571129</v>
       </c>
       <c r="D21">
-        <v>22.2</v>
+        <v>23.6</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="F21">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="G21">
-        <v>0.0009089220088199895</v>
+        <v>0.0065937732925509</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1396,22 +1408,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>56717000</v>
+        <v>67119000</v>
       </c>
       <c r="C22">
-        <v>349419.343614089</v>
+        <v>2582501.30721642</v>
       </c>
       <c r="D22">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="E22">
-        <v>29.1</v>
+        <v>24.6</v>
       </c>
       <c r="F22">
-        <v>27.25</v>
+        <v>25.35</v>
       </c>
       <c r="G22">
-        <v>0.006160751513903927</v>
+        <v>0.03847645684852903</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1419,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>53371000</v>
+        <v>66022000</v>
       </c>
       <c r="C23">
-        <v>69322.1227558536</v>
+        <v>2622433.95960416</v>
       </c>
       <c r="D23">
-        <v>22.1</v>
+        <v>27.5</v>
       </c>
       <c r="E23">
-        <v>23.2</v>
+        <v>27.1</v>
       </c>
       <c r="F23">
-        <v>22.65</v>
+        <v>27.3</v>
       </c>
       <c r="G23">
-        <v>0.001298872472988207</v>
+        <v>0.03972060767023355</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1442,22 +1454,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>49700000</v>
+        <v>60551000</v>
       </c>
       <c r="C24">
-        <v>74938.1906548558</v>
+        <v>1934797.93741133</v>
       </c>
       <c r="D24">
-        <v>21.9</v>
+        <v>26.8</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>25.2</v>
       </c>
       <c r="F24">
-        <v>22.95</v>
+        <v>26</v>
       </c>
       <c r="G24">
-        <v>0.001507810677160077</v>
+        <v>0.03195319544534905</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1465,22 +1477,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>49066000</v>
+        <v>57310000</v>
       </c>
       <c r="C25">
-        <v>309191.382833365</v>
+        <v>52090.3203254736</v>
       </c>
       <c r="D25">
-        <v>25.4</v>
+        <v>22.2</v>
       </c>
       <c r="E25">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="F25">
-        <v>25.95</v>
+        <v>23.1</v>
       </c>
       <c r="G25">
-        <v>0.006301540431935862</v>
+        <v>0.0009089220088199895</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1488,22 +1500,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>46572000</v>
+        <v>56717000</v>
       </c>
       <c r="C26">
-        <v>1311320.01551599</v>
+        <v>349419.343614089</v>
       </c>
       <c r="D26">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>29.1</v>
       </c>
       <c r="F26">
-        <v>26.7</v>
+        <v>27.25</v>
       </c>
       <c r="G26">
-        <v>0.02815683276466525</v>
+        <v>0.006160751513903927</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1511,22 +1523,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>44831000</v>
+        <v>53371000</v>
       </c>
       <c r="C27">
-        <v>112154.185121406</v>
+        <v>69322.1227558536</v>
       </c>
       <c r="D27">
-        <v>26.4</v>
+        <v>22.1</v>
       </c>
       <c r="E27">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="F27">
-        <v>26.1</v>
+        <v>22.65</v>
       </c>
       <c r="G27">
-        <v>0.002501710537828869</v>
+        <v>0.001298872472988207</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1534,22 +1546,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>44271000</v>
+        <v>49700000</v>
       </c>
       <c r="C28">
-        <v>637590.4192693239</v>
+        <v>74938.1906548558</v>
       </c>
       <c r="D28">
-        <v>27.8</v>
+        <v>21.9</v>
       </c>
       <c r="E28">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>27.65</v>
+        <v>22.95</v>
       </c>
       <c r="G28">
-        <v>0.01440198819248095</v>
+        <v>0.001507810677160077</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1557,22 +1569,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>42863000</v>
+        <v>49066000</v>
       </c>
       <c r="C29">
-        <v>25891.0589461936</v>
+        <v>309191.382833365</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>25.4</v>
       </c>
       <c r="E29">
-        <v>23</v>
+        <v>26.5</v>
       </c>
       <c r="F29">
-        <v>22</v>
+        <v>25.95</v>
       </c>
       <c r="G29">
-        <v>0.0006040421563164874</v>
+        <v>0.006301540431935862</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1580,22 +1592,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>41318000</v>
+        <v>46572000</v>
       </c>
       <c r="C30">
-        <v>170370.810917971</v>
+        <v>1311320.01551599</v>
       </c>
       <c r="D30">
-        <v>25.5</v>
+        <v>27.4</v>
       </c>
       <c r="E30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>26.25</v>
+        <v>26.7</v>
       </c>
       <c r="G30">
-        <v>0.004123404107603732</v>
+        <v>0.02815683276466525</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1603,22 +1615,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>40533000</v>
+        <v>44831000</v>
       </c>
       <c r="C31">
-        <v>117487.857142857</v>
+        <v>112154.185121406</v>
       </c>
       <c r="D31">
-        <v>23.7</v>
+        <v>26.4</v>
       </c>
       <c r="E31">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
       <c r="F31">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="G31">
-        <v>0.002898572944091407</v>
+        <v>0.002501710537828869</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1626,22 +1638,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>38275000</v>
+        <v>44271000</v>
       </c>
       <c r="C32">
-        <v>197715.736040609</v>
+        <v>637590.4192693239</v>
       </c>
       <c r="D32">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E32">
-        <v>28.8</v>
+        <v>27.5</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>27.65</v>
       </c>
       <c r="G32">
-        <v>0.005165662600669079</v>
+        <v>0.01440198819248095</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1649,22 +1661,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>37976000</v>
+        <v>42863000</v>
       </c>
       <c r="C33">
-        <v>524509.5652634091</v>
+        <v>25891.0589461936</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>25.7</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>26.35</v>
+        <v>22</v>
       </c>
       <c r="G33">
-        <v>0.01381160641624734</v>
+        <v>0.0006040421563164874</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1672,22 +1684,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>36708000</v>
+        <v>41318000</v>
       </c>
       <c r="C34">
-        <v>1653042.79525504</v>
+        <v>170370.810917971</v>
       </c>
       <c r="D34">
-        <v>27.6</v>
+        <v>25.5</v>
       </c>
       <c r="E34">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F34">
-        <v>27.2</v>
+        <v>26.25</v>
       </c>
       <c r="G34">
-        <v>0.04503222172973303</v>
+        <v>0.004123404107603732</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1695,22 +1707,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>35740000</v>
+        <v>40533000</v>
       </c>
       <c r="C35">
-        <v>109139.484007429</v>
+        <v>117487.857142857</v>
       </c>
       <c r="D35">
+        <v>23.7</v>
+      </c>
+      <c r="E35">
+        <v>26.7</v>
+      </c>
+      <c r="F35">
         <v>25.2</v>
       </c>
-      <c r="E35">
-        <v>25.9</v>
-      </c>
-      <c r="F35">
-        <v>25.55</v>
-      </c>
       <c r="G35">
-        <v>0.00305370688325207</v>
+        <v>0.002898572944091407</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1718,22 +1730,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>35530000</v>
+        <v>38275000</v>
       </c>
       <c r="C36">
-        <v>20815.3002200428</v>
+        <v>197715.736040609</v>
       </c>
       <c r="D36">
-        <v>21.5</v>
+        <v>27.2</v>
       </c>
       <c r="E36">
-        <v>21.8</v>
+        <v>28.8</v>
       </c>
       <c r="F36">
-        <v>21.65</v>
+        <v>28</v>
       </c>
       <c r="G36">
-        <v>0.0005858513993820096</v>
+        <v>0.005165662600669079</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1741,22 +1753,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>32938000</v>
+        <v>37976000</v>
       </c>
       <c r="C37">
-        <v>683827.144288536</v>
+        <v>524509.5652634091</v>
       </c>
       <c r="D37">
-        <v>28.3</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>28.7</v>
+        <v>25.7</v>
       </c>
       <c r="F37">
-        <v>28.5</v>
+        <v>26.35</v>
       </c>
       <c r="G37">
-        <v>0.02076104026621337</v>
+        <v>0.01381160641624734</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1764,22 +1776,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>32387000</v>
+        <v>36708000</v>
       </c>
       <c r="C38">
-        <v>48717.6859840278</v>
+        <v>1653042.79525504</v>
       </c>
       <c r="D38">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E38">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="F38">
-        <v>26.1</v>
+        <v>27.2</v>
       </c>
       <c r="G38">
-        <v>0.001504235834872875</v>
+        <v>0.04503222172973303</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1787,22 +1799,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>32165000</v>
+        <v>35740000</v>
       </c>
       <c r="C39">
-        <v>211389.272242157</v>
+        <v>109139.484007429</v>
       </c>
       <c r="D39">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="E39">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="F39">
-        <v>26.3</v>
+        <v>25.55</v>
       </c>
       <c r="G39">
-        <v>0.006572027739535427</v>
+        <v>0.00305370688325207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1810,22 +1822,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>31624000</v>
+        <v>35530000</v>
       </c>
       <c r="C40">
-        <v>314500.27904381</v>
+        <v>20815.3002200428</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="E40">
-        <v>25.6</v>
+        <v>21.8</v>
       </c>
       <c r="F40">
-        <v>25.3</v>
+        <v>21.65</v>
       </c>
       <c r="G40">
-        <v>0.009944987321142486</v>
+        <v>0.0005858513993820096</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1833,22 +1845,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>29784000</v>
+        <v>32938000</v>
       </c>
       <c r="C41">
-        <v>124209.38582522</v>
+        <v>683827.144288536</v>
       </c>
       <c r="D41">
-        <v>23.5</v>
+        <v>28.3</v>
       </c>
       <c r="E41">
-        <v>24.6</v>
+        <v>28.7</v>
       </c>
       <c r="F41">
-        <v>24.05</v>
+        <v>28.5</v>
       </c>
       <c r="G41">
-        <v>0.00417033930382823</v>
+        <v>0.02076104026621337</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1856,22 +1868,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>29669000</v>
+        <v>32387000</v>
       </c>
       <c r="C42">
-        <v>12333.859926277</v>
+        <v>48717.6859840278</v>
       </c>
       <c r="D42">
-        <v>21.6</v>
+        <v>25.9</v>
       </c>
       <c r="E42">
-        <v>23</v>
+        <v>26.3</v>
       </c>
       <c r="F42">
-        <v>22.3</v>
+        <v>26.1</v>
       </c>
       <c r="G42">
-        <v>0.0004157153906864741</v>
+        <v>0.001504235834872875</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1879,22 +1891,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>29305000</v>
+        <v>32165000</v>
       </c>
       <c r="C43">
-        <v>24472.0132338472</v>
+        <v>211389.272242157</v>
       </c>
       <c r="D43">
-        <v>22.4</v>
+        <v>25.7</v>
       </c>
       <c r="E43">
-        <v>22</v>
+        <v>26.9</v>
       </c>
       <c r="F43">
-        <v>22.2</v>
+        <v>26.3</v>
       </c>
       <c r="G43">
-        <v>0.0008350797895870057</v>
+        <v>0.006572027739535427</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1902,22 +1914,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>28834000</v>
+        <v>31624000</v>
       </c>
       <c r="C44">
-        <v>47330.0163425734</v>
+        <v>314500.27904381</v>
       </c>
       <c r="D44">
-        <v>23.4</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="F44">
-        <v>24.25</v>
+        <v>25.3</v>
       </c>
       <c r="G44">
-        <v>0.001641465504008233</v>
+        <v>0.009944987321142486</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1925,22 +1937,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>25571000</v>
+        <v>29784000</v>
       </c>
       <c r="C45">
-        <v>11499.8038065729</v>
+        <v>124209.38582522</v>
       </c>
       <c r="D45">
-        <v>20.9</v>
+        <v>23.5</v>
       </c>
       <c r="E45">
-        <v>21.2</v>
+        <v>24.6</v>
       </c>
       <c r="F45">
-        <v>21.05</v>
+        <v>24.05</v>
       </c>
       <c r="G45">
-        <v>0.0004497205352380783</v>
+        <v>0.00417033930382823</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1948,22 +1960,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>24599000</v>
+        <v>29669000</v>
       </c>
       <c r="C46">
-        <v>1323421.07247907</v>
+        <v>12333.859926277</v>
       </c>
       <c r="D46">
-        <v>27.6</v>
+        <v>21.6</v>
       </c>
       <c r="E46">
-        <v>26.8</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>27.2</v>
+        <v>22.3</v>
       </c>
       <c r="G46">
-        <v>0.0537997915557165</v>
+        <v>0.0004157153906864741</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1971,22 +1983,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>24295000</v>
+        <v>29305000</v>
       </c>
       <c r="C47">
-        <v>40388.6241171109</v>
+        <v>24472.0132338472</v>
       </c>
       <c r="D47">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="E47">
-        <v>24.1</v>
+        <v>22</v>
       </c>
       <c r="F47">
-        <v>23.65</v>
+        <v>22.2</v>
       </c>
       <c r="G47">
-        <v>0.00166242535983169</v>
+        <v>0.0008350797895870057</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1994,22 +2006,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>24054000</v>
+        <v>28834000</v>
       </c>
       <c r="C48">
-        <v>34798.5964824274</v>
+        <v>47330.0163425734</v>
       </c>
       <c r="D48">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="E48">
         <v>25.1</v>
       </c>
       <c r="F48">
-        <v>24.45</v>
+        <v>24.25</v>
       </c>
       <c r="G48">
-        <v>0.001446686475531196</v>
+        <v>0.001641465504008233</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2017,22 +2029,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>21477000</v>
+        <v>25571000</v>
       </c>
       <c r="C49">
-        <v>8119.732792525349</v>
+        <v>11499.8038065729</v>
       </c>
       <c r="D49">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="E49">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="F49">
-        <v>21.75</v>
+        <v>21.05</v>
       </c>
       <c r="G49">
-        <v>0.0003780664335114471</v>
+        <v>0.0004497205352380783</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2040,22 +2052,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>21444000</v>
+        <v>24599000</v>
       </c>
       <c r="C50">
-        <v>87174.68220043241</v>
+        <v>1323421.07247907</v>
       </c>
       <c r="D50">
-        <v>22.5</v>
+        <v>27.6</v>
       </c>
       <c r="E50">
-        <v>23.5</v>
+        <v>26.8</v>
       </c>
       <c r="F50">
-        <v>23</v>
+        <v>27.2</v>
       </c>
       <c r="G50">
-        <v>0.004065224874110819</v>
+        <v>0.0537997915557165</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2063,22 +2075,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>19587000</v>
+        <v>24295000</v>
       </c>
       <c r="C51">
-        <v>211803.281924738</v>
+        <v>40388.6241171109</v>
       </c>
       <c r="D51">
-        <v>25.7</v>
+        <v>23.2</v>
       </c>
       <c r="E51">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="F51">
-        <v>25.3</v>
+        <v>23.65</v>
       </c>
       <c r="G51">
-        <v>0.01081346208836157</v>
+        <v>0.00166242535983169</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2086,22 +2098,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>19193000</v>
+        <v>24054000</v>
       </c>
       <c r="C52">
-        <v>12873.1148000165</v>
+        <v>34798.5964824274</v>
       </c>
       <c r="D52">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="E52">
-        <v>22</v>
+        <v>25.1</v>
       </c>
       <c r="F52">
-        <v>22.05</v>
+        <v>24.45</v>
       </c>
       <c r="G52">
-        <v>0.0006707192622318815</v>
+        <v>0.001446686475531196</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2109,22 +2121,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>18622000</v>
+        <v>21477000</v>
       </c>
       <c r="C53">
-        <v>6303.27759080083</v>
+        <v>8119.732792525349</v>
       </c>
       <c r="D53">
-        <v>22.3</v>
+        <v>21.3</v>
       </c>
       <c r="E53">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="F53">
-        <v>22.8</v>
+        <v>21.75</v>
       </c>
       <c r="G53">
-        <v>0.0003384855327462587</v>
+        <v>0.0003780664335114471</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2132,22 +2144,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>18542000</v>
+        <v>21444000</v>
       </c>
       <c r="C54">
-        <v>15288.1633672602</v>
+        <v>87174.68220043241</v>
       </c>
       <c r="D54">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="E54">
+        <v>23.5</v>
+      </c>
+      <c r="F54">
         <v>23</v>
       </c>
-      <c r="F54">
-        <v>22.8</v>
-      </c>
       <c r="G54">
-        <v>0.000824515336385514</v>
+        <v>0.004065224874110819</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2155,22 +2167,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>18055000</v>
+        <v>19587000</v>
       </c>
       <c r="C55">
-        <v>277075.944401941</v>
+        <v>211803.281924738</v>
       </c>
       <c r="D55">
-        <v>27.6</v>
+        <v>25.7</v>
       </c>
       <c r="E55">
-        <v>28</v>
+        <v>24.9</v>
       </c>
       <c r="F55">
-        <v>27.8</v>
+        <v>25.3</v>
       </c>
       <c r="G55">
-        <v>0.01534621680431686</v>
+        <v>0.01081346208836157</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2178,22 +2190,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>18038000</v>
+        <v>19193000</v>
       </c>
       <c r="C56">
-        <v>159406.926359122</v>
+        <v>12873.1148000165</v>
       </c>
       <c r="D56">
-        <v>27.4</v>
+        <v>22.1</v>
       </c>
       <c r="E56">
-        <v>27.5</v>
+        <v>22</v>
       </c>
       <c r="F56">
-        <v>27.45</v>
+        <v>22.05</v>
       </c>
       <c r="G56">
-        <v>0.008837283865124848</v>
+        <v>0.0006707192622318815</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2201,22 +2213,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>17133000</v>
+        <v>18622000</v>
       </c>
       <c r="C57">
-        <v>826200.282501127</v>
+        <v>6303.27759080083</v>
       </c>
       <c r="D57">
-        <v>25.9</v>
+        <v>22.3</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="F57">
-        <v>25.45</v>
+        <v>22.8</v>
       </c>
       <c r="G57">
-        <v>0.04822274455735288</v>
+        <v>0.0003384855327462587</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2224,22 +2236,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>17094000</v>
+        <v>18542000</v>
       </c>
       <c r="C58">
-        <v>25808.6664215558</v>
+        <v>15288.1633672602</v>
       </c>
       <c r="D58">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="E58">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="F58">
-        <v>22.65</v>
+        <v>22.8</v>
       </c>
       <c r="G58">
-        <v>0.00150980849546951</v>
+        <v>0.000824515336385514</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2247,22 +2259,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>16914000</v>
+        <v>18055000</v>
       </c>
       <c r="C59">
-        <v>75620.0955375005</v>
+        <v>277075.944401941</v>
       </c>
       <c r="D59">
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="E59">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="F59">
-        <v>26.45</v>
+        <v>27.8</v>
       </c>
       <c r="G59">
-        <v>0.004470858196612303</v>
+        <v>0.01534621680431686</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2270,22 +2282,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>16625000</v>
+        <v>18038000</v>
       </c>
       <c r="C60">
-        <v>103056.619</v>
+        <v>159406.926359122</v>
       </c>
       <c r="D60">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E60">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F60">
-        <v>27.05</v>
+        <v>27.45</v>
       </c>
       <c r="G60">
-        <v>0.00619889437593985</v>
+        <v>0.008837283865124848</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2293,22 +2305,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>16530000</v>
+        <v>17133000</v>
       </c>
       <c r="C61">
-        <v>17845.8214</v>
+        <v>826200.282501127</v>
       </c>
       <c r="D61">
-        <v>21.8</v>
+        <v>25.9</v>
       </c>
       <c r="E61">
         <v>25</v>
       </c>
       <c r="F61">
-        <v>23.4</v>
+        <v>25.45</v>
       </c>
       <c r="G61">
-        <v>0.001079602020568663</v>
+        <v>0.04822274455735288</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2316,22 +2328,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>16005000</v>
+        <v>17094000</v>
       </c>
       <c r="C62">
-        <v>22158.2095026391</v>
+        <v>25808.6664215558</v>
       </c>
       <c r="D62">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="E62">
-        <v>22</v>
+        <v>23.8</v>
       </c>
       <c r="F62">
-        <v>21.95</v>
+        <v>22.65</v>
       </c>
       <c r="G62">
-        <v>0.001384455451586323</v>
+        <v>0.00150980849546951</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2339,22 +2351,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>15851000</v>
+        <v>16914000</v>
       </c>
       <c r="C63">
-        <v>16374.7437534731</v>
+        <v>75620.0955375005</v>
       </c>
       <c r="D63">
-        <v>21.8</v>
+        <v>25.8</v>
       </c>
       <c r="E63">
-        <v>24.1</v>
+        <v>27.1</v>
       </c>
       <c r="F63">
-        <v>22.95</v>
+        <v>26.45</v>
       </c>
       <c r="G63">
-        <v>0.001033041685286297</v>
+        <v>0.004470858196612303</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2362,22 +2374,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>14900000</v>
+        <v>16625000</v>
       </c>
       <c r="C64">
-        <v>9981.303726232809</v>
+        <v>103056.619</v>
       </c>
       <c r="D64">
-        <v>22.1</v>
+        <v>26.4</v>
       </c>
       <c r="E64">
-        <v>22.5</v>
+        <v>27.7</v>
       </c>
       <c r="F64">
-        <v>22.3</v>
+        <v>27.05</v>
       </c>
       <c r="G64">
-        <v>0.0006698861561230073</v>
+        <v>0.00619889437593985</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2385,22 +2397,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>14743000</v>
+        <v>16530000</v>
       </c>
       <c r="C65">
-        <v>7368.56069466414</v>
+        <v>17845.8214</v>
       </c>
       <c r="D65">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="E65">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="F65">
-        <v>21.85</v>
+        <v>23.4</v>
       </c>
       <c r="G65">
-        <v>0.0004998006304459161</v>
+        <v>0.001079602020568663</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2408,22 +2420,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>12717000</v>
+        <v>16005000</v>
       </c>
       <c r="C66">
-        <v>10491.4749296796</v>
+        <v>22158.2095026391</v>
       </c>
       <c r="D66">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="E66">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="F66">
-        <v>22.7</v>
+        <v>21.95</v>
       </c>
       <c r="G66">
-        <v>0.0008249960627254541</v>
+        <v>0.001384455451586323</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2431,22 +2443,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>12576000</v>
+        <v>15851000</v>
       </c>
       <c r="C67">
-        <v>2904.11490322912</v>
+        <v>16374.7437534731</v>
       </c>
       <c r="D67">
-        <v>23.7</v>
+        <v>21.8</v>
       </c>
       <c r="E67">
-        <v>26.7</v>
+        <v>24.1</v>
       </c>
       <c r="F67">
-        <v>25.2</v>
+        <v>22.95</v>
       </c>
       <c r="G67">
-        <v>0.0002309251672415012</v>
+        <v>0.001033041685286297</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2454,22 +2466,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>12208000</v>
+        <v>14900000</v>
       </c>
       <c r="C68">
-        <v>9136.689514094789</v>
+        <v>9981.303726232809</v>
       </c>
       <c r="D68">
-        <v>21.3</v>
+        <v>22.1</v>
       </c>
       <c r="E68">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="F68">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="G68">
-        <v>0.0007484182105254578</v>
+        <v>0.0006698861561230073</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2477,22 +2489,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>11532000</v>
+        <v>14743000</v>
       </c>
       <c r="C69">
-        <v>40256.6752087294</v>
+        <v>7368.56069466414</v>
       </c>
       <c r="D69">
-        <v>26</v>
+        <v>21.2</v>
       </c>
       <c r="E69">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="F69">
-        <v>26.75</v>
+        <v>21.85</v>
       </c>
       <c r="G69">
-        <v>0.003490866736795821</v>
+        <v>0.0004998006304459161</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2500,22 +2512,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>11485000</v>
+        <v>12717000</v>
       </c>
       <c r="C70">
-        <v>87132.8</v>
+        <v>10491.4749296796</v>
       </c>
       <c r="D70">
-        <v>25.6</v>
+        <v>22.1</v>
       </c>
       <c r="E70">
-        <v>26.7</v>
+        <v>23.3</v>
       </c>
       <c r="F70">
-        <v>26.15</v>
+        <v>22.7</v>
       </c>
       <c r="G70">
-        <v>0.007586660861993905</v>
+        <v>0.0008249960627254541</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2523,22 +2535,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>11372000</v>
+        <v>12576000</v>
       </c>
       <c r="C71">
-        <v>492681.283049248</v>
+        <v>2904.11490322912</v>
       </c>
       <c r="D71">
-        <v>26.2</v>
+        <v>23.7</v>
       </c>
       <c r="E71">
-        <v>24.7</v>
+        <v>26.7</v>
       </c>
       <c r="F71">
-        <v>25.45</v>
+        <v>25.2</v>
       </c>
       <c r="G71">
-        <v>0.04332406639546676</v>
+        <v>0.0002309251672415012</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2546,22 +2558,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>11176000</v>
+        <v>12208000</v>
       </c>
       <c r="C72">
-        <v>9273.55827164744</v>
+        <v>9136.689514094789</v>
       </c>
       <c r="D72">
-        <v>22.6</v>
+        <v>21.3</v>
       </c>
       <c r="E72">
-        <v>24.3</v>
+        <v>22.7</v>
       </c>
       <c r="F72">
-        <v>23.45</v>
+        <v>22</v>
       </c>
       <c r="G72">
-        <v>0.0008297743621731782</v>
+        <v>0.0007484182105254578</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2569,22 +2581,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>11052000</v>
+        <v>11532000</v>
       </c>
       <c r="C73">
-        <v>37508.6421128799</v>
+        <v>40256.6752087294</v>
       </c>
       <c r="D73">
-        <v>24.6</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F73">
-        <v>25.95</v>
+        <v>26.75</v>
       </c>
       <c r="G73">
-        <v>0.003393832981621417</v>
+        <v>0.003490866736795821</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2592,22 +2604,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>10981000</v>
+        <v>11485000</v>
       </c>
       <c r="C74">
-        <v>8408.150517976839</v>
+        <v>87132.8</v>
       </c>
       <c r="D74">
-        <v>24.2</v>
+        <v>25.6</v>
       </c>
       <c r="E74">
-        <v>24</v>
+        <v>26.7</v>
       </c>
       <c r="F74">
-        <v>24.1</v>
+        <v>26.15</v>
       </c>
       <c r="G74">
-        <v>0.0007656998923574209</v>
+        <v>0.007586660861993905</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2615,22 +2627,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>10864000</v>
+        <v>11372000</v>
       </c>
       <c r="C75">
-        <v>3477.50217827657</v>
+        <v>492681.283049248</v>
       </c>
       <c r="D75">
-        <v>20.4</v>
+        <v>26.2</v>
       </c>
       <c r="E75">
-        <v>21.3</v>
+        <v>24.7</v>
       </c>
       <c r="F75">
-        <v>20.85</v>
+        <v>25.45</v>
       </c>
       <c r="G75">
-        <v>0.0003200940885747947</v>
+        <v>0.04332406639546676</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2638,22 +2650,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>10767000</v>
+        <v>11176000</v>
       </c>
       <c r="C76">
-        <v>75931.65681465699</v>
+        <v>9273.55827164744</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>22.6</v>
       </c>
       <c r="E76">
-        <v>27.4</v>
+        <v>24.3</v>
       </c>
       <c r="F76">
-        <v>26.7</v>
+        <v>23.45</v>
       </c>
       <c r="G76">
-        <v>0.007052257528992012</v>
+        <v>0.0008297743621731782</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2661,22 +2673,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>10760000</v>
+        <v>11052000</v>
       </c>
       <c r="C77">
-        <v>200288.277129038</v>
+        <v>37508.6421128799</v>
       </c>
       <c r="D77">
-        <v>27.4</v>
+        <v>24.6</v>
       </c>
       <c r="E77">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F77">
-        <v>27.3</v>
+        <v>25.95</v>
       </c>
       <c r="G77">
-        <v>0.01861415214953885</v>
+        <v>0.003393832981621417</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2684,22 +2696,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>10591000</v>
+        <v>10981000</v>
       </c>
       <c r="C78">
-        <v>215725.534372371</v>
+        <v>8408.150517976839</v>
       </c>
       <c r="D78">
-        <v>27.8</v>
+        <v>24.2</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F78">
-        <v>26.9</v>
+        <v>24.1</v>
       </c>
       <c r="G78">
-        <v>0.02036875973679265</v>
+        <v>0.0007656998923574209</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2707,22 +2719,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>10294000</v>
+        <v>10864000</v>
       </c>
       <c r="C79">
-        <v>217571.08304599</v>
+        <v>3477.50217827657</v>
       </c>
       <c r="D79">
-        <v>26.7</v>
+        <v>20.4</v>
       </c>
       <c r="E79">
-        <v>25.7</v>
+        <v>21.3</v>
       </c>
       <c r="F79">
-        <v>26.2</v>
+        <v>20.85</v>
       </c>
       <c r="G79">
-        <v>0.02113571818981834</v>
+        <v>0.0003200940885747947</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2730,22 +2742,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>10068000</v>
+        <v>10767000</v>
       </c>
       <c r="C80">
-        <v>538040.458216997</v>
+        <v>75931.65681465699</v>
       </c>
       <c r="D80">
+        <v>26</v>
+      </c>
+      <c r="E80">
+        <v>27.4</v>
+      </c>
+      <c r="F80">
         <v>26.7</v>
       </c>
-      <c r="E80">
-        <v>24.9</v>
-      </c>
-      <c r="F80">
-        <v>25.8</v>
-      </c>
       <c r="G80">
-        <v>0.05344064940574066</v>
+        <v>0.007052257528992012</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2753,22 +2765,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>9862000</v>
+        <v>10760000</v>
       </c>
       <c r="C81">
-        <v>40747.7922379735</v>
+        <v>200288.277129038</v>
       </c>
       <c r="D81">
-        <v>26.6</v>
+        <v>27.4</v>
       </c>
       <c r="E81">
-        <v>28.1</v>
+        <v>27.2</v>
       </c>
       <c r="F81">
-        <v>27.35</v>
+        <v>27.3</v>
       </c>
       <c r="G81">
-        <v>0.004131798036703864</v>
+        <v>0.01861415214953885</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2776,22 +2788,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>9781000</v>
+        <v>10591000</v>
       </c>
       <c r="C82">
-        <v>139135.02975829</v>
+        <v>215725.534372371</v>
       </c>
       <c r="D82">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E82">
-        <v>25.2</v>
+        <v>26</v>
       </c>
       <c r="F82">
-        <v>26.35</v>
+        <v>26.9</v>
       </c>
       <c r="G82">
-        <v>0.01422503115819344</v>
+        <v>0.02036875973679265</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2799,22 +2811,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>9702000</v>
+        <v>10294000</v>
       </c>
       <c r="C83">
-        <v>40068.30851627549</v>
+        <v>217571.08304599</v>
       </c>
       <c r="D83">
-        <v>28.2</v>
+        <v>26.7</v>
       </c>
       <c r="E83">
-        <v>29.7</v>
+        <v>25.7</v>
       </c>
       <c r="F83">
-        <v>28.95</v>
+        <v>26.2</v>
       </c>
       <c r="G83">
-        <v>0.004129901929115182</v>
+        <v>0.02113571818981834</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2822,22 +2834,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>9508000</v>
+        <v>10068000</v>
       </c>
       <c r="C84">
-        <v>54442.3743725094</v>
+        <v>538040.458216997</v>
       </c>
       <c r="D84">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="E84">
-        <v>26.2</v>
+        <v>24.9</v>
       </c>
       <c r="F84">
-        <v>26.65</v>
+        <v>25.8</v>
       </c>
       <c r="G84">
-        <v>0.005725954393406542</v>
+        <v>0.05344064940574066</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2845,22 +2857,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>9400000</v>
+        <v>9862000</v>
       </c>
       <c r="C85">
-        <v>382575.085091899</v>
+        <v>40747.7922379735</v>
       </c>
       <c r="D85">
-        <v>28.6</v>
+        <v>26.6</v>
       </c>
       <c r="E85">
-        <v>29.7</v>
+        <v>28.1</v>
       </c>
       <c r="F85">
-        <v>29.15</v>
+        <v>27.35</v>
       </c>
       <c r="G85">
-        <v>0.04069947713743606</v>
+        <v>0.004131798036703864</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2868,22 +2880,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>9265000</v>
+        <v>9781000</v>
       </c>
       <c r="C86">
-        <v>22978.5328967816</v>
+        <v>139135.02975829</v>
       </c>
       <c r="D86">
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="E86">
-        <v>27.3</v>
+        <v>25.2</v>
       </c>
       <c r="F86">
-        <v>26.4</v>
+        <v>26.35</v>
       </c>
       <c r="G86">
-        <v>0.002480143863656946</v>
+        <v>0.01422503115819344</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2891,22 +2903,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>8921000</v>
+        <v>9702000</v>
       </c>
       <c r="C87">
-        <v>7145.7010187492</v>
+        <v>40068.30851627549</v>
       </c>
       <c r="D87">
-        <v>25.5</v>
+        <v>28.2</v>
       </c>
       <c r="E87">
-        <v>25.3</v>
+        <v>29.7</v>
       </c>
       <c r="F87">
-        <v>25.4</v>
+        <v>28.95</v>
       </c>
       <c r="G87">
-        <v>0.0008009977602005604</v>
+        <v>0.004129901929115182</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2914,22 +2926,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>8809000</v>
+        <v>9508000</v>
       </c>
       <c r="C88">
-        <v>416595.666396636</v>
+        <v>54442.3743725094</v>
       </c>
       <c r="D88">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="E88">
-        <v>24.4</v>
+        <v>26.2</v>
       </c>
       <c r="F88">
-        <v>25.45</v>
+        <v>26.65</v>
       </c>
       <c r="G88">
-        <v>0.04729204976690158</v>
+        <v>0.005725954393406542</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2937,22 +2949,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>8712000</v>
+        <v>9400000</v>
       </c>
       <c r="C89">
-        <v>350850.537827281</v>
+        <v>382575.085091899</v>
       </c>
       <c r="D89">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="E89">
-        <v>26.2</v>
+        <v>29.7</v>
       </c>
       <c r="F89">
-        <v>26.25</v>
+        <v>29.15</v>
       </c>
       <c r="G89">
-        <v>0.04027210030157036</v>
+        <v>0.04069947713743606</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2960,22 +2972,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>8466000</v>
+        <v>9265000</v>
       </c>
       <c r="C90">
-        <v>678887.336848252</v>
+        <v>22978.5328967816</v>
       </c>
       <c r="D90">
-        <v>26.7</v>
+        <v>25.5</v>
       </c>
       <c r="E90">
-        <v>23.8</v>
+        <v>27.3</v>
       </c>
       <c r="F90">
-        <v>25.25</v>
+        <v>26.4</v>
       </c>
       <c r="G90">
-        <v>0.08018985788427262</v>
+        <v>0.002480143863656946</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2983,22 +2995,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>8251000</v>
+        <v>8921000</v>
       </c>
       <c r="C91">
-        <v>21088.7584847485</v>
+        <v>7145.7010187492</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="E91">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="F91">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="G91">
-        <v>0.002555903343200642</v>
+        <v>0.0008009977602005604</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3006,22 +3018,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>7798000</v>
+        <v>8809000</v>
       </c>
       <c r="C92">
-        <v>4812.55434614923</v>
+        <v>416595.666396636</v>
       </c>
       <c r="D92">
-        <v>22.4</v>
+        <v>26.5</v>
       </c>
       <c r="E92">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="F92">
-        <v>23.2</v>
+        <v>25.45</v>
       </c>
       <c r="G92">
-        <v>0.0006171523911450667</v>
+        <v>0.04729204976690158</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3029,22 +3041,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>7557000</v>
+        <v>8712000</v>
       </c>
       <c r="C93">
-        <v>3774.27039241231</v>
+        <v>350850.537827281</v>
       </c>
       <c r="D93">
-        <v>22</v>
+        <v>26.3</v>
       </c>
       <c r="E93">
-        <v>23.6</v>
+        <v>26.2</v>
       </c>
       <c r="F93">
-        <v>22.8</v>
+        <v>26.25</v>
       </c>
       <c r="G93">
-        <v>0.0004994403059960712</v>
+        <v>0.04027210030157036</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3052,22 +3064,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>7076000</v>
+        <v>8466000</v>
       </c>
       <c r="C94">
-        <v>56831.51829443969</v>
+        <v>678887.336848252</v>
       </c>
       <c r="D94">
         <v>26.7</v>
       </c>
       <c r="E94">
-        <v>25.3</v>
+        <v>23.8</v>
       </c>
       <c r="F94">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="G94">
-        <v>0.008031588227026525</v>
+        <v>0.08018985788427262</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3075,22 +3087,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>7022000</v>
+        <v>8251000</v>
       </c>
       <c r="C95">
-        <v>41431.6488011663</v>
+        <v>21088.7584847485</v>
       </c>
       <c r="D95">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="E95">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="F95">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="G95">
-        <v>0.005900263286978965</v>
+        <v>0.002555903343200642</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3098,22 +3110,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>6811000</v>
+        <v>7798000</v>
       </c>
       <c r="C96">
-        <v>29734.8952489053</v>
+        <v>4812.55434614923</v>
       </c>
       <c r="D96">
-        <v>25.6</v>
+        <v>22.4</v>
       </c>
       <c r="E96">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F96">
-        <v>25.8</v>
+        <v>23.2</v>
       </c>
       <c r="G96">
-        <v>0.004365716524578667</v>
+        <v>0.0006171523911450667</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3121,22 +3133,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>6378000</v>
+        <v>7557000</v>
       </c>
       <c r="C97">
-        <v>24805.4396</v>
+        <v>3774.27039241231</v>
       </c>
       <c r="D97">
-        <v>26.8</v>
+        <v>22</v>
       </c>
       <c r="E97">
-        <v>28</v>
+        <v>23.6</v>
       </c>
       <c r="F97">
-        <v>27.4</v>
+        <v>22.8</v>
       </c>
       <c r="G97">
-        <v>0.003889219128253371</v>
+        <v>0.0004994403059960712</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3144,22 +3156,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>6375000</v>
+        <v>7076000</v>
       </c>
       <c r="C98">
-        <v>50984.3624784973</v>
+        <v>56831.51829443969</v>
       </c>
       <c r="D98">
-        <v>27.2</v>
+        <v>26.7</v>
       </c>
       <c r="E98">
-        <v>29.6</v>
+        <v>25.3</v>
       </c>
       <c r="F98">
-        <v>28.4</v>
+        <v>26</v>
       </c>
       <c r="G98">
-        <v>0.007997547055450556</v>
+        <v>0.008031588227026525</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3167,22 +3179,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>6218000</v>
+        <v>7022000</v>
       </c>
       <c r="C99">
-        <v>13814.2615355434</v>
+        <v>41431.6488011663</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="E99">
-        <v>27.8</v>
+        <v>25.2</v>
       </c>
       <c r="F99">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="G99">
-        <v>0.002221656728134995</v>
+        <v>0.005900263286978965</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3190,22 +3202,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>6082000</v>
+        <v>6811000</v>
       </c>
       <c r="C100">
-        <v>51844.4877420232</v>
+        <v>29734.8952489053</v>
       </c>
       <c r="D100">
-        <v>28</v>
+        <v>25.6</v>
       </c>
       <c r="E100">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="F100">
-        <v>27.8</v>
+        <v>25.8</v>
       </c>
       <c r="G100">
-        <v>0.008524249875373759</v>
+        <v>0.004365716524578667</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3213,22 +3225,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>5770000</v>
+        <v>6378000</v>
       </c>
       <c r="C101">
-        <v>324871.968807469</v>
+        <v>24805.4396</v>
       </c>
       <c r="D101">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="E101">
-        <v>24.5</v>
+        <v>28</v>
       </c>
       <c r="F101">
-        <v>25.25</v>
+        <v>27.4</v>
       </c>
       <c r="G101">
-        <v>0.05630363410874679</v>
+        <v>0.003889219128253371</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3236,22 +3248,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>5758000</v>
+        <v>6375000</v>
       </c>
       <c r="C102">
-        <v>42355.42857142859</v>
+        <v>50984.3624784973</v>
       </c>
       <c r="D102">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="E102">
-        <v>26.4</v>
+        <v>29.6</v>
       </c>
       <c r="F102">
-        <v>26.4</v>
+        <v>28.4</v>
       </c>
       <c r="G102">
-        <v>0.007355927157247064</v>
+        <v>0.007997547055450556</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3259,22 +3271,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>5612000</v>
+        <v>6218000</v>
       </c>
       <c r="C103">
-        <v>323907.23441234</v>
+        <v>13814.2615355434</v>
       </c>
       <c r="D103">
-        <v>24.3</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>23.2</v>
+        <v>27.8</v>
       </c>
       <c r="F103">
-        <v>23.75</v>
+        <v>26.9</v>
       </c>
       <c r="G103">
-        <v>0.05771689850540628</v>
+        <v>0.002221656728134995</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3282,22 +3294,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>5511000</v>
+        <v>6082000</v>
       </c>
       <c r="C104">
-        <v>251884.887972766</v>
+        <v>51844.4877420232</v>
       </c>
       <c r="D104">
-        <v>26.5</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>25.3</v>
+        <v>27.6</v>
       </c>
       <c r="F104">
-        <v>25.9</v>
+        <v>27.8</v>
       </c>
       <c r="G104">
-        <v>0.04570584067733006</v>
+        <v>0.008524249875373759</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3305,22 +3317,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>5282000</v>
+        <v>5770000</v>
       </c>
       <c r="C105">
-        <v>398831.956477937</v>
+        <v>324871.968807469</v>
       </c>
       <c r="D105">
-        <v>26.9</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>25.2</v>
+        <v>24.5</v>
       </c>
       <c r="F105">
-        <v>26.05</v>
+        <v>25.25</v>
       </c>
       <c r="G105">
-        <v>0.07550775397158974</v>
+        <v>0.05630363410874679</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3328,22 +3340,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>4906000</v>
+        <v>5758000</v>
       </c>
       <c r="C106">
-        <v>57057.3724680383</v>
+        <v>42355.42857142859</v>
       </c>
       <c r="D106">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E106">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="F106">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="G106">
-        <v>0.0116301207639703</v>
+        <v>0.007355927157247064</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3351,22 +3363,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>4814000</v>
+        <v>5612000</v>
       </c>
       <c r="C107">
-        <v>333730.76477318</v>
+        <v>323907.23441234</v>
       </c>
       <c r="D107">
-        <v>27.9</v>
+        <v>24.3</v>
       </c>
       <c r="E107">
-        <v>27.1</v>
+        <v>23.2</v>
       </c>
       <c r="F107">
-        <v>27.5</v>
+        <v>23.75</v>
       </c>
       <c r="G107">
-        <v>0.0693250446142875</v>
+        <v>0.05771689850540628</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3374,22 +3386,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>4794000</v>
+        <v>5511000</v>
       </c>
       <c r="C108">
-        <v>205852.838254712</v>
+        <v>251884.887972766</v>
       </c>
       <c r="D108">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="E108">
-        <v>27.8</v>
+        <v>25.3</v>
       </c>
       <c r="F108">
-        <v>27.9</v>
+        <v>25.9</v>
       </c>
       <c r="G108">
-        <v>0.04293968257294785</v>
+        <v>0.04570584067733006</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3397,22 +3409,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>4732000</v>
+        <v>5282000</v>
       </c>
       <c r="C109">
-        <v>2158</v>
+        <v>398831.956477937</v>
       </c>
       <c r="D109">
-        <v>23.2</v>
+        <v>26.9</v>
       </c>
       <c r="E109">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="F109">
-        <v>24.05</v>
+        <v>26.05</v>
       </c>
       <c r="G109">
-        <v>0.000456043956043956</v>
+        <v>0.07550775397158974</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3420,22 +3432,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>4659000</v>
+        <v>4906000</v>
       </c>
       <c r="C110">
-        <v>1949.41165920453</v>
+        <v>57057.3724680383</v>
       </c>
       <c r="D110">
-        <v>21.6</v>
+        <v>26.7</v>
       </c>
       <c r="E110">
-        <v>23.2</v>
+        <v>27.1</v>
       </c>
       <c r="F110">
-        <v>22.4</v>
+        <v>26.9</v>
       </c>
       <c r="G110">
-        <v>0.0004184184716043207</v>
+        <v>0.0116301207639703</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3443,22 +3455,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>4636000</v>
+        <v>4814000</v>
       </c>
       <c r="C111">
-        <v>72642.6527958387</v>
+        <v>333730.76477318</v>
       </c>
       <c r="D111">
-        <v>26.8</v>
+        <v>27.9</v>
       </c>
       <c r="E111">
         <v>27.1</v>
       </c>
       <c r="F111">
-        <v>26.95</v>
+        <v>27.5</v>
       </c>
       <c r="G111">
-        <v>0.01566925211299368</v>
+        <v>0.0693250446142875</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3466,22 +3478,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>4420000</v>
+        <v>4794000</v>
       </c>
       <c r="C112">
-        <v>5024.70593433687</v>
+        <v>205852.838254712</v>
       </c>
       <c r="D112">
-        <v>23.2</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="F112">
-        <v>24.8</v>
+        <v>27.9</v>
       </c>
       <c r="G112">
-        <v>0.001136811297361283</v>
+        <v>0.04293968257294785</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3489,22 +3501,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>4137000</v>
+        <v>4732000</v>
       </c>
       <c r="C113">
-        <v>120126.277612925</v>
+        <v>2158</v>
       </c>
       <c r="D113">
-        <v>29.5</v>
+        <v>23.2</v>
       </c>
       <c r="E113">
-        <v>30.8</v>
+        <v>24.9</v>
       </c>
       <c r="F113">
-        <v>30.15</v>
+        <v>24.05</v>
       </c>
       <c r="G113">
-        <v>0.02903705042613609</v>
+        <v>0.000456043956043956</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3512,22 +3524,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>4126000</v>
+        <v>4659000</v>
       </c>
       <c r="C114">
-        <v>54849.1802288716</v>
+        <v>1949.41165920453</v>
       </c>
       <c r="D114">
-        <v>26.5</v>
+        <v>21.6</v>
       </c>
       <c r="E114">
-        <v>24.6</v>
+        <v>23.2</v>
       </c>
       <c r="F114">
-        <v>25.55</v>
+        <v>22.4</v>
       </c>
       <c r="G114">
-        <v>0.01329354828620252</v>
+        <v>0.0004184184716043207</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3535,22 +3547,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>4099000</v>
+        <v>4636000</v>
       </c>
       <c r="C115">
-        <v>61838.1758</v>
+        <v>72642.6527958387</v>
       </c>
       <c r="D115">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="E115">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F115">
-        <v>27.05</v>
+        <v>26.95</v>
       </c>
       <c r="G115">
-        <v>0.01508616145401317</v>
+        <v>0.01566925211299368</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3558,22 +3570,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>3717000</v>
+        <v>4420000</v>
       </c>
       <c r="C116">
-        <v>15159.2812113967</v>
+        <v>5024.70593433687</v>
       </c>
       <c r="D116">
-        <v>27.2</v>
+        <v>23.2</v>
       </c>
       <c r="E116">
-        <v>27.3</v>
+        <v>26.4</v>
       </c>
       <c r="F116">
-        <v>27.25</v>
+        <v>24.8</v>
       </c>
       <c r="G116">
-        <v>0.00407836459816968</v>
+        <v>0.001136811297361283</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3581,22 +3593,22 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>3550000</v>
+        <v>4137000</v>
       </c>
       <c r="C117">
-        <v>8128.49343207741</v>
+        <v>120126.277612925</v>
       </c>
       <c r="D117">
-        <v>26.3</v>
+        <v>29.5</v>
       </c>
       <c r="E117">
-        <v>27.1</v>
+        <v>30.8</v>
       </c>
       <c r="F117">
-        <v>26.7</v>
+        <v>30.15</v>
       </c>
       <c r="G117">
-        <v>0.002289716459740116</v>
+        <v>0.02903705042613609</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3604,22 +3616,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>3507000</v>
+        <v>4126000</v>
       </c>
       <c r="C118">
-        <v>18168.5795781952</v>
+        <v>54849.1802288716</v>
       </c>
       <c r="D118">
         <v>26.5</v>
       </c>
       <c r="E118">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="F118">
-        <v>26.1</v>
+        <v>25.55</v>
       </c>
       <c r="G118">
-        <v>0.005180661413799601</v>
+        <v>0.01329354828620252</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3627,22 +3639,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>3457000</v>
+        <v>4099000</v>
       </c>
       <c r="C119">
-        <v>56156.9721576958</v>
+        <v>61838.1758</v>
       </c>
       <c r="D119">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="E119">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F119">
-        <v>26.8</v>
+        <v>27.05</v>
       </c>
       <c r="G119">
-        <v>0.01624442353419028</v>
+        <v>0.01508616145401317</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3650,22 +3662,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>3076000</v>
+        <v>3717000</v>
       </c>
       <c r="C120">
-        <v>11488.0468810431</v>
+        <v>15159.2812113967</v>
       </c>
       <c r="D120">
-        <v>25.5</v>
+        <v>27.2</v>
       </c>
       <c r="E120">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F120">
-        <v>25.95</v>
+        <v>27.25</v>
       </c>
       <c r="G120">
-        <v>0.003734735657036119</v>
+        <v>0.00407836459816968</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3673,22 +3685,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>2930000</v>
+        <v>3550000</v>
       </c>
       <c r="C121">
-        <v>11536.5906358267</v>
+        <v>8128.49343207741</v>
       </c>
       <c r="D121">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E121">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F121">
-        <v>26.65</v>
+        <v>26.7</v>
       </c>
       <c r="G121">
-        <v>0.003937402947381126</v>
+        <v>0.002289716459740116</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3696,22 +3708,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>2890000</v>
+        <v>3507000</v>
       </c>
       <c r="C122">
-        <v>14768.1349124171</v>
+        <v>18168.5795781952</v>
       </c>
       <c r="D122">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="E122">
-        <v>29.2</v>
+        <v>25.7</v>
       </c>
       <c r="F122">
-        <v>27.35</v>
+        <v>26.1</v>
       </c>
       <c r="G122">
-        <v>0.005110081284573392</v>
+        <v>0.005180661413799601</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3719,22 +3731,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>2873000</v>
+        <v>3457000</v>
       </c>
       <c r="C123">
-        <v>13039.3527439616</v>
+        <v>56156.9721576958</v>
       </c>
       <c r="D123">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="E123">
-        <v>25.6</v>
+        <v>26.9</v>
       </c>
       <c r="F123">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
       <c r="G123">
-        <v>0.004538584317424852</v>
+        <v>0.01624442353419028</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3742,22 +3754,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>2828000</v>
+        <v>3076000</v>
       </c>
       <c r="C124">
-        <v>47168.3037441329</v>
+        <v>11488.0468810431</v>
       </c>
       <c r="D124">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="E124">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="F124">
-        <v>26.65</v>
+        <v>25.95</v>
       </c>
       <c r="G124">
-        <v>0.01667903244134827</v>
+        <v>0.003734735657036119</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3765,22 +3777,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>2639000</v>
+        <v>2930000</v>
       </c>
       <c r="C125">
-        <v>167605.21978022</v>
+        <v>11536.5906358267</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>25.9</v>
       </c>
       <c r="E125">
-        <v>30.1</v>
+        <v>27.4</v>
       </c>
       <c r="F125">
-        <v>29.55</v>
+        <v>26.65</v>
       </c>
       <c r="G125">
-        <v>0.06351088282691171</v>
+        <v>0.003937402947381126</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3788,22 +3800,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>2534000</v>
+        <v>2890000</v>
       </c>
       <c r="C126">
-        <v>13244.5973454319</v>
+        <v>14768.1349124171</v>
       </c>
       <c r="D126">
-        <v>22.9</v>
+        <v>25.5</v>
       </c>
       <c r="E126">
-        <v>25.6</v>
+        <v>29.2</v>
       </c>
       <c r="F126">
-        <v>24.25</v>
+        <v>27.35</v>
       </c>
       <c r="G126">
-        <v>0.005226755069231215</v>
+        <v>0.005110081284573392</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3811,22 +3823,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>2292000</v>
+        <v>2873000</v>
       </c>
       <c r="C127">
-        <v>17406.5307807155</v>
+        <v>13039.3527439616</v>
       </c>
       <c r="D127">
-        <v>22.9</v>
+        <v>26.6</v>
       </c>
       <c r="E127">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="F127">
-        <v>24.75</v>
+        <v>26.1</v>
       </c>
       <c r="G127">
-        <v>0.007594472417415139</v>
+        <v>0.004538584317424852</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3834,22 +3846,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>2233000</v>
+        <v>2828000</v>
       </c>
       <c r="C128">
-        <v>2639.38629142767</v>
+        <v>47168.3037441329</v>
       </c>
       <c r="D128">
-        <v>22.7</v>
+        <v>27.3</v>
       </c>
       <c r="E128">
-        <v>27.1</v>
+        <v>26</v>
       </c>
       <c r="F128">
-        <v>24.9</v>
+        <v>26.65</v>
       </c>
       <c r="G128">
-        <v>0.0011819911739488</v>
+        <v>0.01667903244134827</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3857,22 +3869,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>2067000</v>
+        <v>2639000</v>
       </c>
       <c r="C129">
-        <v>48769.6554792388</v>
+        <v>167605.21978022</v>
       </c>
       <c r="D129">
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>26.3</v>
+        <v>30.1</v>
       </c>
       <c r="F129">
-        <v>26.9</v>
+        <v>29.55</v>
       </c>
       <c r="G129">
-        <v>0.02359441484239903</v>
+        <v>0.06351088282691171</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3880,22 +3892,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>2025000</v>
+        <v>2534000</v>
       </c>
       <c r="C130">
-        <v>14622.8808856842</v>
+        <v>13244.5973454319</v>
       </c>
       <c r="D130">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="E130">
-        <v>26.4</v>
+        <v>25.6</v>
       </c>
       <c r="F130">
-        <v>25.5</v>
+        <v>24.25</v>
       </c>
       <c r="G130">
-        <v>0.00722117574601689</v>
+        <v>0.005226755069231215</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3903,22 +3915,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>1941000</v>
+        <v>2292000</v>
       </c>
       <c r="C131">
-        <v>30264.4546418004</v>
+        <v>17406.5307807155</v>
       </c>
       <c r="D131">
-        <v>26.8</v>
+        <v>22.9</v>
       </c>
       <c r="E131">
-        <v>25.1</v>
+        <v>26.6</v>
       </c>
       <c r="F131">
-        <v>25.95</v>
+        <v>24.75</v>
       </c>
       <c r="G131">
-        <v>0.01559219713642473</v>
+        <v>0.007594472417415139</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3926,22 +3938,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>1861000</v>
+        <v>2233000</v>
       </c>
       <c r="C132">
-        <v>1346.93349023577</v>
+        <v>2639.38629142767</v>
       </c>
       <c r="D132">
-        <v>22.2</v>
+        <v>22.7</v>
       </c>
       <c r="E132">
-        <v>23.9</v>
+        <v>27.1</v>
       </c>
       <c r="F132">
-        <v>23.05</v>
+        <v>24.9</v>
       </c>
       <c r="G132">
-        <v>0.0007237686675098173</v>
+        <v>0.0011819911739488</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3949,13 +3961,22 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>1831000</v>
+        <v>2067000</v>
       </c>
       <c r="C133">
-        <v>7128.69055668244</v>
+        <v>48769.6554792388</v>
+      </c>
+      <c r="D133">
+        <v>27.5</v>
+      </c>
+      <c r="E133">
+        <v>26.3</v>
+      </c>
+      <c r="F133">
+        <v>26.9</v>
       </c>
       <c r="G133">
-        <v>0.003893331816866434</v>
+        <v>0.02359441484239903</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3963,22 +3984,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>1493000</v>
+        <v>2025000</v>
       </c>
       <c r="C134">
-        <v>35307.1276595745</v>
+        <v>14622.8808856842</v>
       </c>
       <c r="D134">
-        <v>28</v>
+        <v>24.6</v>
       </c>
       <c r="E134">
-        <v>28.6</v>
+        <v>26.4</v>
       </c>
       <c r="F134">
-        <v>28.3</v>
+        <v>25.5</v>
       </c>
       <c r="G134">
-        <v>0.02364844451411554</v>
+        <v>0.00722117574601689</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3986,22 +4007,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>1369000</v>
+        <v>1941000</v>
       </c>
       <c r="C135">
-        <v>22104.77582846</v>
+        <v>30264.4546418004</v>
       </c>
       <c r="D135">
-        <v>27.9</v>
+        <v>26.8</v>
       </c>
       <c r="E135">
-        <v>29.4</v>
+        <v>25.1</v>
       </c>
       <c r="F135">
-        <v>28.65</v>
+        <v>25.95</v>
       </c>
       <c r="G135">
-        <v>0.01614665874978817</v>
+        <v>0.01559219713642473</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4009,22 +4030,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>1367000</v>
+        <v>1861000</v>
       </c>
       <c r="C136">
-        <v>4408.56426016111</v>
+        <v>1346.93349023577</v>
       </c>
       <c r="D136">
-        <v>24.1</v>
+        <v>22.2</v>
       </c>
       <c r="E136">
-        <v>28.9</v>
+        <v>23.9</v>
       </c>
       <c r="F136">
-        <v>26.5</v>
+        <v>23.05</v>
       </c>
       <c r="G136">
-        <v>0.00322499214349752</v>
+        <v>0.0007237686675098173</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4032,22 +4053,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>1315000</v>
+        <v>1831000</v>
       </c>
       <c r="C137">
-        <v>25921.0796123337</v>
-      </c>
-      <c r="D137">
-        <v>27</v>
-      </c>
-      <c r="E137">
-        <v>24.3</v>
-      </c>
-      <c r="F137">
-        <v>25.65</v>
+        <v>7128.69055668244</v>
       </c>
       <c r="G137">
-        <v>0.01971184761394197</v>
+        <v>0.003893331816866434</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4055,22 +4067,22 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>1296000</v>
+        <v>1493000</v>
       </c>
       <c r="C138">
-        <v>2954.62099958441</v>
+        <v>35307.1276595745</v>
       </c>
       <c r="D138">
-        <v>21.5</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>21</v>
+        <v>28.6</v>
       </c>
       <c r="F138">
-        <v>21.25</v>
+        <v>28.3</v>
       </c>
       <c r="G138">
-        <v>0.002279800154000317</v>
+        <v>0.02364844451411554</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4078,22 +4090,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>1268000</v>
+        <v>1369000</v>
       </c>
       <c r="C139">
-        <v>12486.753871278</v>
+        <v>22104.77582846</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="E139">
-        <v>26.1</v>
+        <v>29.4</v>
       </c>
       <c r="F139">
-        <v>25.55</v>
+        <v>28.65</v>
       </c>
       <c r="G139">
-        <v>0.009847597690282334</v>
+        <v>0.01614665874978817</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4101,22 +4113,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>1265000</v>
+        <v>1367000</v>
       </c>
       <c r="C140">
-        <v>13338.1475230124</v>
+        <v>4408.56426016111</v>
       </c>
       <c r="D140">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="E140">
-        <v>26.2</v>
+        <v>28.9</v>
       </c>
       <c r="F140">
-        <v>25.6</v>
+        <v>26.5</v>
       </c>
       <c r="G140">
-        <v>0.01054399013676869</v>
+        <v>0.00322499214349752</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4124,22 +4136,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>1180000</v>
+        <v>1315000</v>
       </c>
       <c r="C141">
-        <v>21651.7917511832</v>
+        <v>25921.0796123337</v>
       </c>
       <c r="D141">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E141">
-        <v>26.3</v>
+        <v>24.3</v>
       </c>
       <c r="F141">
-        <v>26.95</v>
+        <v>25.65</v>
       </c>
       <c r="G141">
-        <v>0.01834897606032475</v>
+        <v>0.01971184761394197</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4147,22 +4159,22 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>957000</v>
+        <v>1296000</v>
       </c>
       <c r="C142">
-        <v>1844.67443450371</v>
+        <v>2954.62099958441</v>
       </c>
       <c r="D142">
-        <v>22.7</v>
+        <v>21.5</v>
       </c>
       <c r="E142">
-        <v>23.9</v>
+        <v>21</v>
       </c>
       <c r="F142">
-        <v>23.3</v>
+        <v>21.25</v>
       </c>
       <c r="G142">
-        <v>0.001927559492689352</v>
+        <v>0.002279800154000317</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4170,22 +4182,22 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>906000</v>
+        <v>1268000</v>
       </c>
       <c r="C143">
-        <v>5061.20276742948</v>
+        <v>12486.753871278</v>
       </c>
       <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143">
         <v>26.1</v>
       </c>
-      <c r="E143">
-        <v>28.4</v>
-      </c>
       <c r="F143">
-        <v>27.25</v>
+        <v>25.55</v>
       </c>
       <c r="G143">
-        <v>0.005586316520341589</v>
+        <v>0.009847597690282334</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4193,22 +4205,22 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>814000</v>
+        <v>1265000</v>
       </c>
       <c r="C144">
-        <v>648.920942738052</v>
+        <v>13338.1475230124</v>
       </c>
       <c r="D144">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>25.1</v>
+        <v>26.2</v>
       </c>
       <c r="F144">
-        <v>24.05</v>
+        <v>25.6</v>
       </c>
       <c r="G144">
-        <v>0.0007972001753538722</v>
+        <v>0.01054399013676869</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4216,22 +4228,22 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>808000</v>
+        <v>1180000</v>
       </c>
       <c r="C145">
-        <v>2511.85294117647</v>
+        <v>21651.7917511832</v>
       </c>
       <c r="D145">
-        <v>23.4</v>
+        <v>27.6</v>
       </c>
       <c r="E145">
-        <v>24.2</v>
+        <v>26.3</v>
       </c>
       <c r="F145">
-        <v>23.8</v>
+        <v>26.95</v>
       </c>
       <c r="G145">
-        <v>0.003108728887594641</v>
+        <v>0.01834897606032475</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4239,22 +4251,22 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>778000</v>
+        <v>957000</v>
       </c>
       <c r="C146">
-        <v>3675.63196125908</v>
+        <v>1844.67443450371</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>22.7</v>
       </c>
       <c r="E146">
-        <v>27.6</v>
+        <v>23.9</v>
       </c>
       <c r="F146">
-        <v>26.3</v>
+        <v>23.3</v>
       </c>
       <c r="G146">
-        <v>0.004724462675140205</v>
+        <v>0.001927559492689352</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4262,22 +4274,22 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>622000</v>
+        <v>906000</v>
       </c>
       <c r="C147">
-        <v>4774.0860942078</v>
+        <v>5061.20276742948</v>
       </c>
       <c r="D147">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="E147">
-        <v>25.5</v>
+        <v>28.4</v>
       </c>
       <c r="F147">
-        <v>26</v>
+        <v>27.25</v>
       </c>
       <c r="G147">
-        <v>0.00767537957268135</v>
+        <v>0.005586316520341589</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4285,22 +4297,22 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>611000</v>
+        <v>814000</v>
       </c>
       <c r="C148">
-        <v>1303.45361611974</v>
+        <v>648.920942738052</v>
       </c>
       <c r="D148">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="E148">
-        <v>26.4</v>
+        <v>25.1</v>
       </c>
       <c r="F148">
-        <v>25.45</v>
+        <v>24.05</v>
       </c>
       <c r="G148">
-        <v>0.002133311974009395</v>
+        <v>0.0007972001753538722</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4308,22 +4320,22 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>599000</v>
+        <v>808000</v>
       </c>
       <c r="C149">
-        <v>62404.4612746636</v>
+        <v>2511.85294117647</v>
       </c>
       <c r="D149">
-        <v>27.6</v>
+        <v>23.4</v>
       </c>
       <c r="E149">
-        <v>25.5</v>
+        <v>24.2</v>
       </c>
       <c r="F149">
-        <v>26.55</v>
+        <v>23.8</v>
       </c>
       <c r="G149">
-        <v>0.1041810705753983</v>
+        <v>0.003108728887594641</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4331,22 +4343,22 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>563000</v>
+        <v>778000</v>
       </c>
       <c r="C150">
-        <v>3324.38532526677</v>
+        <v>3675.63196125908</v>
       </c>
       <c r="D150">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="E150">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="F150">
-        <v>27.35</v>
+        <v>26.3</v>
       </c>
       <c r="G150">
-        <v>0.005904769671877034</v>
+        <v>0.004724462675140205</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4354,22 +4366,22 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>546000</v>
+        <v>622000</v>
       </c>
       <c r="C151">
-        <v>1753.73671167273</v>
+        <v>4774.0860942078</v>
       </c>
       <c r="D151">
-        <v>23.9</v>
+        <v>26.5</v>
       </c>
       <c r="E151">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="F151">
-        <v>24.65</v>
+        <v>26</v>
       </c>
       <c r="G151">
-        <v>0.003211971999400604</v>
+        <v>0.00767537957268135</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4377,22 +4389,22 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>465000</v>
+        <v>611000</v>
       </c>
       <c r="C152">
-        <v>12537.7507324769</v>
+        <v>1303.45361611974</v>
       </c>
       <c r="D152">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="E152">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F152">
-        <v>27.15</v>
+        <v>25.45</v>
       </c>
       <c r="G152">
-        <v>0.02696290480102559</v>
+        <v>0.002133311974009395</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4400,22 +4412,22 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>436000</v>
+        <v>599000</v>
       </c>
       <c r="C153">
-        <v>4597.08330350693</v>
+        <v>62404.4612746636</v>
       </c>
       <c r="D153">
-        <v>24.2</v>
+        <v>27.6</v>
       </c>
       <c r="E153">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="F153">
-        <v>25.05</v>
+        <v>26.55</v>
       </c>
       <c r="G153">
-        <v>0.01054376904474067</v>
+        <v>0.1041810705753983</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4423,22 +4435,22 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>375000</v>
+        <v>563000</v>
       </c>
       <c r="C154">
-        <v>1838</v>
+        <v>3324.38532526677</v>
       </c>
       <c r="D154">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E154">
-        <v>30.2</v>
+        <v>28.2</v>
       </c>
       <c r="F154">
-        <v>28.9</v>
+        <v>27.35</v>
       </c>
       <c r="G154">
-        <v>0.004901333333333333</v>
+        <v>0.005904769671877034</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4446,22 +4458,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>341000</v>
+        <v>546000</v>
       </c>
       <c r="C155">
-        <v>23909.2899785861</v>
+        <v>1753.73671167273</v>
       </c>
       <c r="D155">
-        <v>26.7</v>
+        <v>23.9</v>
       </c>
       <c r="E155">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="F155">
-        <v>25.9</v>
+        <v>24.65</v>
       </c>
       <c r="G155">
-        <v>0.07011521987855161</v>
+        <v>0.003211971999400604</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4469,22 +4481,22 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>286000</v>
+        <v>465000</v>
       </c>
       <c r="C156">
-        <v>4796.845980822601</v>
+        <v>12537.7507324769</v>
       </c>
       <c r="D156">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>26.8</v>
       </c>
       <c r="F156">
-        <v>28.7</v>
+        <v>27.15</v>
       </c>
       <c r="G156">
-        <v>0.01677218874413497</v>
+        <v>0.02696290480102559</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4492,22 +4504,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>276000</v>
+        <v>436000</v>
       </c>
       <c r="C157">
-        <v>862.879789390161</v>
+        <v>4597.08330350693</v>
       </c>
       <c r="D157">
-        <v>25.6</v>
+        <v>24.2</v>
       </c>
       <c r="E157">
-        <v>26.8</v>
+        <v>25.9</v>
       </c>
       <c r="F157">
-        <v>26.2</v>
+        <v>25.05</v>
       </c>
       <c r="G157">
-        <v>0.003126376048515076</v>
+        <v>0.01054376904474067</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4515,22 +4527,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>196000</v>
+        <v>375000</v>
       </c>
       <c r="C158">
-        <v>856.626506024096</v>
+        <v>1838</v>
       </c>
       <c r="D158">
-        <v>29.9</v>
+        <v>27.6</v>
       </c>
       <c r="E158">
-        <v>33.5</v>
+        <v>30.2</v>
       </c>
       <c r="F158">
-        <v>31.7</v>
+        <v>28.9</v>
       </c>
       <c r="G158">
-        <v>0.004370543398082122</v>
+        <v>0.004901333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4538,22 +4550,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>116000</v>
+        <v>341000</v>
       </c>
       <c r="C159">
-        <v>196.150061312078</v>
+        <v>23909.2899785861</v>
       </c>
       <c r="D159">
-        <v>28.7</v>
+        <v>26.7</v>
       </c>
       <c r="E159">
-        <v>30.5</v>
+        <v>25.1</v>
       </c>
       <c r="F159">
-        <v>29.6</v>
+        <v>25.9</v>
       </c>
       <c r="G159">
-        <v>0.001690948804414466</v>
+        <v>0.07011521987855161</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4561,22 +4573,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>108000</v>
+        <v>286000</v>
       </c>
       <c r="C160">
-        <v>426.057453064917</v>
+        <v>4796.845980822601</v>
       </c>
       <c r="D160">
-        <v>30.4</v>
+        <v>27.4</v>
       </c>
       <c r="E160">
-        <v>33.5</v>
+        <v>30</v>
       </c>
       <c r="F160">
-        <v>31.95</v>
+        <v>28.7</v>
       </c>
       <c r="G160">
-        <v>0.00394497641726775</v>
+        <v>0.01677218874413497</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4584,22 +4596,22 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>108000</v>
+        <v>276000</v>
       </c>
       <c r="C161">
-        <v>1118.81667940741</v>
+        <v>862.879789390161</v>
       </c>
       <c r="D161">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E161">
-        <v>28.7</v>
+        <v>26.8</v>
       </c>
       <c r="F161">
-        <v>26.95</v>
+        <v>26.2</v>
       </c>
       <c r="G161">
-        <v>0.01035941369821676</v>
+        <v>0.003126376048515076</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4607,22 +4619,22 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>102000</v>
+        <v>196000</v>
       </c>
       <c r="C162">
-        <v>1532.39755555556</v>
+        <v>856.626506024096</v>
       </c>
       <c r="D162">
-        <v>27.3</v>
+        <v>29.9</v>
       </c>
       <c r="E162">
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="F162">
-        <v>28.4</v>
+        <v>31.7</v>
       </c>
       <c r="G162">
-        <v>0.01502350544662314</v>
+        <v>0.004370543398082122</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4630,22 +4642,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>96000</v>
+        <v>116000</v>
       </c>
       <c r="C163">
-        <v>1485.99438749716</v>
+        <v>196.150061312078</v>
       </c>
       <c r="D163">
-        <v>25.6</v>
+        <v>28.7</v>
       </c>
       <c r="E163">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="F163">
-        <v>26.8</v>
+        <v>29.6</v>
       </c>
       <c r="G163">
-        <v>0.01547910820309542</v>
+        <v>0.001690948804414466</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4653,22 +4665,22 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>77000</v>
+        <v>108000</v>
       </c>
       <c r="C164">
-        <v>3012.91413116971</v>
+        <v>426.057453064917</v>
       </c>
       <c r="D164">
-        <v>27.8</v>
+        <v>30.4</v>
       </c>
       <c r="E164">
-        <v>27.1</v>
+        <v>33.5</v>
       </c>
       <c r="F164">
-        <v>27.45</v>
+        <v>31.95</v>
       </c>
       <c r="G164">
-        <v>0.03912875495025598</v>
+        <v>0.00394497641726775</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4676,22 +4688,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>74000</v>
+        <v>108000</v>
       </c>
       <c r="C165">
-        <v>562.5407407407411</v>
+        <v>1118.81667940741</v>
       </c>
       <c r="D165">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E165">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F165">
-        <v>27.05</v>
+        <v>26.95</v>
       </c>
       <c r="G165">
-        <v>0.007601901901901906</v>
+        <v>0.01035941369821676</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4699,22 +4711,22 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>53000</v>
+        <v>102000</v>
       </c>
       <c r="C166">
-        <v>199.39924708</v>
+        <v>1532.39755555556</v>
       </c>
       <c r="D166">
+        <v>27.3</v>
+      </c>
+      <c r="E166">
+        <v>29.5</v>
+      </c>
+      <c r="F166">
         <v>28.4</v>
       </c>
-      <c r="E166">
-        <v>30</v>
-      </c>
-      <c r="F166">
-        <v>29.2</v>
-      </c>
       <c r="G166">
-        <v>0.003762249944905661</v>
+        <v>0.01502350544662314</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4722,13 +4734,22 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>38000</v>
+        <v>96000</v>
       </c>
       <c r="C167">
-        <v>6289.16540955908</v>
+        <v>1485.99438749716</v>
+      </c>
+      <c r="D167">
+        <v>25.6</v>
+      </c>
+      <c r="E167">
+        <v>28</v>
+      </c>
+      <c r="F167">
+        <v>26.8</v>
       </c>
       <c r="G167">
-        <v>0.1655043528831337</v>
+        <v>0.01547910820309542</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4736,13 +4757,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>33000</v>
+        <v>77000</v>
       </c>
       <c r="C168">
-        <v>1658.7784539103</v>
+        <v>3012.91413116971</v>
+      </c>
+      <c r="D168">
+        <v>27.8</v>
+      </c>
+      <c r="E168">
+        <v>27.1</v>
+      </c>
+      <c r="F168">
+        <v>27.45</v>
       </c>
       <c r="G168">
-        <v>0.05026601375485758</v>
+        <v>0.03912875495025598</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4750,22 +4780,22 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>22000</v>
+        <v>74000</v>
       </c>
       <c r="C169">
-        <v>291.5443</v>
+        <v>562.5407407407411</v>
       </c>
       <c r="D169">
-        <v>29.4</v>
+        <v>25.1</v>
       </c>
       <c r="E169">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F169">
-        <v>29.45</v>
+        <v>27.05</v>
       </c>
       <c r="G169">
-        <v>0.01325201363636364</v>
+        <v>0.007601901901901906</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4773,22 +4803,22 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>14000</v>
+        <v>53000</v>
       </c>
       <c r="C170">
-        <v>113.88490836413</v>
+        <v>199.39924708</v>
       </c>
       <c r="D170">
-        <v>32.1</v>
+        <v>28.4</v>
       </c>
       <c r="E170">
-        <v>32.8</v>
+        <v>30</v>
       </c>
       <c r="F170">
-        <v>32.45</v>
+        <v>29.2</v>
       </c>
       <c r="G170">
-        <v>0.008134636311723571</v>
+        <v>0.003762249944905661</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4796,21 +4826,95 @@
         <v>176</v>
       </c>
       <c r="B171">
+        <v>38000</v>
+      </c>
+      <c r="C171">
+        <v>6289.16540955908</v>
+      </c>
+      <c r="G171">
+        <v>0.1655043528831337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>33000</v>
+      </c>
+      <c r="C172">
+        <v>1658.7784539103</v>
+      </c>
+      <c r="G172">
+        <v>0.05026601375485758</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>22000</v>
+      </c>
+      <c r="C173">
+        <v>291.5443</v>
+      </c>
+      <c r="D173">
+        <v>29.4</v>
+      </c>
+      <c r="E173">
+        <v>29.5</v>
+      </c>
+      <c r="F173">
+        <v>29.45</v>
+      </c>
+      <c r="G173">
+        <v>0.01325201363636364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>14000</v>
+      </c>
+      <c r="C174">
+        <v>113.88490836413</v>
+      </c>
+      <c r="D174">
+        <v>32.1</v>
+      </c>
+      <c r="E174">
+        <v>32.8</v>
+      </c>
+      <c r="F174">
+        <v>32.45</v>
+      </c>
+      <c r="G174">
+        <v>0.008134636311723571</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
         <v>11000</v>
       </c>
-      <c r="C171">
+      <c r="C175">
         <v>39.7313173044487</v>
       </c>
-      <c r="D171">
+      <c r="D175">
         <v>28.7</v>
       </c>
-      <c r="E171">
+      <c r="E175">
         <v>29.9</v>
       </c>
-      <c r="F171">
+      <c r="F175">
         <v>29.3</v>
       </c>
-      <c r="G171">
+      <c r="G175">
         <v>0.003611937936768064</v>
       </c>
     </row>
